--- a/datasetInstructions/ParksExcel.xlsx
+++ b/datasetInstructions/ParksExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIS_data\zGIS_Admin\student_assistants\bcit_student\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Desktop\htgGUIProject\datasetInstructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4167B888-F0C5-4F2B-800F-9AAED8B8B5BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288BFF1C-F61D-4795-ACEC-E0B1F8C753C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17712" windowHeight="6540" xr2:uid="{64D74A5E-133C-4F25-BAFF-3E636F97158A}"/>
+    <workbookView xWindow="-24870" yWindow="13320" windowWidth="14400" windowHeight="7665" xr2:uid="{64D74A5E-133C-4F25-BAFF-3E636F97158A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -333,38 +333,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,39 +682,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15565A79-1836-4C19-80A7-307EB12D53F4}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="19.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.54296875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -734,16 +734,16 @@
       <c r="G2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="11" t="s">
         <v>57</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -765,16 +765,16 @@
       <c r="G3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -796,16 +796,16 @@
       <c r="G4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="11" t="s">
         <v>52</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -827,16 +827,16 @@
       <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="37.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -854,16 +854,16 @@
         <v>26</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="11" t="s">
         <v>54</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -885,16 +885,16 @@
       <c r="G7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -916,16 +916,16 @@
       <c r="G8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="11" t="s">
         <v>55</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -947,66 +947,66 @@
       <c r="G9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="95.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="12" t="s">
         <v>53</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1015,7 +1015,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1024,7 +1024,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1033,7 +1033,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1042,7 +1042,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
